--- a/medicine/Enfance/Olivier_Dupin/Olivier_Dupin.xlsx
+++ b/medicine/Enfance/Olivier_Dupin/Olivier_Dupin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Dupin, né le 8 avril 1979, est auteur de romans et d'albums pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Dupin est professeur des écoles et auteur de littérature jeunesse[1],[2]. Son premier roman est publié en 2011[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Dupin est professeur des écoles et auteur de littérature jeunesse,. Son premier roman est publié en 2011.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Collection Boules de poils &amp; Cie (Fleurus)
 2012  : Chien recherche maître désespérément !, avec Juliette Parachini, illustré par Ariane Delrieu, Fleurus.
@@ -708,7 +724,9 @@
           <t>Sélections et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sélections
 Sélection au 32ème prix des Incorruptibles pour Vous ici ?.
@@ -718,7 +736,7 @@
 Sélection au Prix Tatoulu 2024 pour Les Mouzes.
 Récompenses
 Prix Litteralouest 2019-2020 pour Vous ici ?
-Prix Litteralouest 2022-2023[3] pour Red Lili avec Hervé Le Goff</t>
+Prix Litteralouest 2022-2023 pour Red Lili avec Hervé Le Goff</t>
         </is>
       </c>
     </row>
